--- a/GA_bNa_bCa_NaK/Errors_ctrl5.xlsx
+++ b/GA_bNa_bCa_NaK/Errors_ctrl5.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>432590.6382904281</v>
+        <v>434922.3568998929</v>
       </c>
       <c r="B2" t="n">
-        <v>42472.28619577674</v>
+        <v>17672.57421656265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>395449.1880225202</v>
+        <v>429240.6566613867</v>
       </c>
       <c r="B3" t="n">
-        <v>3208.609772005455</v>
+        <v>20749.55905288174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>352804.3467466626</v>
+        <v>390466.2277089027</v>
       </c>
       <c r="B4" t="n">
-        <v>3155.289922687685</v>
+        <v>7145.188328332336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>317995.8602771434</v>
+        <v>377937.9734112836</v>
       </c>
       <c r="B5" t="n">
-        <v>3809.448832275722</v>
+        <v>10646.14235784831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>359003.0033922461</v>
+        <v>386549.3133070897</v>
       </c>
       <c r="B6" t="n">
-        <v>3585.293143196807</v>
+        <v>10646.14235784831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>304646.1305724572</v>
+        <v>350991.7284350336</v>
       </c>
       <c r="B7" t="n">
-        <v>3436.347561171068</v>
+        <v>4043.866726357831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>297413.0800965269</v>
+        <v>336817.0371176401</v>
       </c>
       <c r="B8" t="n">
-        <v>2954.510286073225</v>
+        <v>4013.597553455205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>281079.4068881864</v>
+        <v>341682.4634236183</v>
       </c>
       <c r="B9" t="n">
-        <v>3352.836316838902</v>
+        <v>4063.776773829617</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>209861.6820063221</v>
+        <v>305738.312034487</v>
       </c>
       <c r="B10" t="n">
-        <v>3461.484774822058</v>
+        <v>4005.912952576757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>190613.515106663</v>
+        <v>256151.9330277792</v>
       </c>
       <c r="B11" t="n">
-        <v>3417.440358673725</v>
+        <v>3475.403921630952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>179988.7759306377</v>
+        <v>237189.2355215856</v>
       </c>
       <c r="B12" t="n">
-        <v>3160.438266040419</v>
+        <v>2333.62875872893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>174433.1507493385</v>
+        <v>250256.8604263755</v>
       </c>
       <c r="B13" t="n">
-        <v>4895.514100918892</v>
+        <v>2333.62875872893</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>146656.6897919376</v>
+        <v>180733.6362467768</v>
       </c>
       <c r="B14" t="n">
-        <v>3504.392232874048</v>
+        <v>3749.355711870292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>137259.4302322987</v>
+        <v>159253.0623762961</v>
       </c>
       <c r="B15" t="n">
-        <v>3431.987148675755</v>
+        <v>3778.279765975604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>125199.5152191922</v>
+        <v>109314.49050183</v>
       </c>
       <c r="B16" t="n">
-        <v>3379.330047191366</v>
+        <v>3718.764063377416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107035.2047107271</v>
+        <v>126311.6430761651</v>
       </c>
       <c r="B17" t="n">
-        <v>3445.676096188044</v>
+        <v>3839.266254486143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96700.00137018351</v>
+        <v>58049.71010686707</v>
       </c>
       <c r="B18" t="n">
-        <v>2760.53896855865</v>
+        <v>3221.431569155402</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106448.5256427616</v>
+        <v>22166.32540679517</v>
       </c>
       <c r="B19" t="n">
-        <v>3211.025445866601</v>
+        <v>3609.580899776904</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>81414.88826392006</v>
+        <v>37474.35798423181</v>
       </c>
       <c r="B20" t="n">
-        <v>2496.106653034627</v>
+        <v>3563.964252388973</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>79482.19721719169</v>
+        <v>41191.53082429356</v>
       </c>
       <c r="B21" t="n">
-        <v>2421.056599995584</v>
+        <v>3298.83765879526</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>71531.11072145337</v>
+        <v>42259.8292390135</v>
       </c>
       <c r="B22" t="n">
-        <v>3011.385725766339</v>
+        <v>3230.578782283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>71541.67535831667</v>
+        <v>37581.62187952185</v>
       </c>
       <c r="B23" t="n">
-        <v>3011.385725766339</v>
+        <v>3250.630817326065</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>70321.5448476693</v>
+        <v>26004.68764758564</v>
       </c>
       <c r="B24" t="n">
-        <v>2923.859283871675</v>
+        <v>3223.039498677652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>68166.65075094113</v>
+        <v>18018.29487468884</v>
       </c>
       <c r="B25" t="n">
-        <v>2736.282378104633</v>
+        <v>3268.810883353827</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>73713.28997528757</v>
+        <v>44312.87748128957</v>
       </c>
       <c r="B26" t="n">
-        <v>3004.886581028692</v>
+        <v>3249.883801909192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>71916.30133566883</v>
+        <v>17653.08130148462</v>
       </c>
       <c r="B27" t="n">
-        <v>2811.038628840554</v>
+        <v>3066.841777131313</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>63687.18992681707</v>
+        <v>44664.68411489217</v>
       </c>
       <c r="B28" t="n">
-        <v>2440.12021392078</v>
+        <v>3234.618975860511</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>60622.1680490773</v>
+        <v>24927.29655315421</v>
       </c>
       <c r="B29" t="n">
-        <v>2707.498840690937</v>
+        <v>3135.876396747476</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>65043.19897484717</v>
+        <v>33952.48336543939</v>
       </c>
       <c r="B30" t="n">
-        <v>2779.248499177709</v>
+        <v>2989.843443963076</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43666.70077135777</v>
+        <v>12009.30763732013</v>
       </c>
       <c r="B31" t="n">
-        <v>2782.164002177308</v>
+        <v>2951.656450767576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>33091.77628986742</v>
+        <v>30559.56401920008</v>
       </c>
       <c r="B32" t="n">
-        <v>2697.341666679198</v>
+        <v>2751.065095248365</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>48454.42512939512</v>
+        <v>21065.52711915011</v>
       </c>
       <c r="B33" t="n">
-        <v>2581.443042394161</v>
+        <v>2841.572822509424</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>47915.1415779366</v>
+        <v>30944.26682091891</v>
       </c>
       <c r="B34" t="n">
-        <v>2661.590225385954</v>
+        <v>2488.301458018778</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>47631.84633174729</v>
+        <v>30629.49741471208</v>
       </c>
       <c r="B35" t="n">
-        <v>2627.329481897967</v>
+        <v>2591.021755543748</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59705.09992134789</v>
+        <v>25824.6274684667</v>
       </c>
       <c r="B36" t="n">
-        <v>2639.593145695476</v>
+        <v>2367.024675537709</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>59524.74168686855</v>
+        <v>47575.47957687182</v>
       </c>
       <c r="B37" t="n">
-        <v>2598.320223786392</v>
+        <v>2725.770146255351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>66390.75346461224</v>
+        <v>32554.17261261087</v>
       </c>
       <c r="B38" t="n">
-        <v>2455.564852152731</v>
+        <v>2520.52547547175</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43370.32690922092</v>
+        <v>49358.72535420817</v>
       </c>
       <c r="B39" t="n">
-        <v>2695.666877718728</v>
+        <v>2459.312956433785</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>65967.22890939203</v>
+        <v>38979.70218096453</v>
       </c>
       <c r="B40" t="n">
-        <v>2624.008828655489</v>
+        <v>2616.558573162168</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>59487.8689962248</v>
+        <v>23826.59206805336</v>
       </c>
       <c r="B41" t="n">
-        <v>2662.0852694037</v>
+        <v>2488.304508441021</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40903.47978676396</v>
+        <v>37980.18627312878</v>
       </c>
       <c r="B42" t="n">
-        <v>2836.280299083416</v>
+        <v>2359.68197578338</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>77449.16800592985</v>
+        <v>29299.20025575319</v>
       </c>
       <c r="B43" t="n">
-        <v>2728.166419553123</v>
+        <v>2296.050782980779</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>37780.68127381409</v>
+        <v>34473.51525241069</v>
       </c>
       <c r="B44" t="n">
-        <v>2587.748634525406</v>
+        <v>2158.064685122257</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>53110.94929254468</v>
+        <v>26124.12612262318</v>
       </c>
       <c r="B45" t="n">
-        <v>2471.990486001196</v>
+        <v>2236.898623948609</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>80910.33951207783</v>
+        <v>52700.21707892073</v>
       </c>
       <c r="B46" t="n">
-        <v>1725.288545174519</v>
+        <v>2216.918867105609</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>72254.12687223106</v>
+        <v>38881.62237389033</v>
       </c>
       <c r="B47" t="n">
-        <v>2570.480256508222</v>
+        <v>2187.48978346693</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>51910.65673451195</v>
+        <v>42701.71798833527</v>
       </c>
       <c r="B48" t="n">
-        <v>2521.574826347804</v>
+        <v>2020.395074167845</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>57581.75779586354</v>
+        <v>57967.23765923113</v>
       </c>
       <c r="B49" t="n">
-        <v>2550.972579678791</v>
+        <v>2188.443650995179</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>59620.10598708427</v>
+        <v>45504.14281490861</v>
       </c>
       <c r="B50" t="n">
-        <v>2529.536277041708</v>
+        <v>2151.250939852705</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>89544.96502492353</v>
+        <v>26636.98519830311</v>
       </c>
       <c r="B51" t="n">
-        <v>2464.748499518626</v>
+        <v>2023.308351745276</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>55215.43065333549</v>
+        <v>63365.5202410226</v>
       </c>
       <c r="B52" t="n">
-        <v>2179.791841806542</v>
+        <v>2056.017917813662</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>25586.70611763181</v>
+        <v>65115.09961778481</v>
       </c>
       <c r="B53" t="n">
-        <v>2330.564235056225</v>
+        <v>2055.670088074228</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>89911.29930836995</v>
+        <v>30777.72502812065</v>
       </c>
       <c r="B54" t="n">
-        <v>2354.507587195121</v>
+        <v>1718.52165269854</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>85700.08307495595</v>
+        <v>37753.37829550376</v>
       </c>
       <c r="B55" t="n">
-        <v>2071.420466083955</v>
+        <v>1592.09269530337</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>91107.18524656938</v>
+        <v>52906.89186675524</v>
       </c>
       <c r="B56" t="n">
-        <v>2071.420466083955</v>
+        <v>2028.967924238473</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>58858.32850826818</v>
+        <v>68444.89389030338</v>
       </c>
       <c r="B57" t="n">
-        <v>2257.008493680761</v>
+        <v>1912.64365729416</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>72157.83064220038</v>
+        <v>86927.98304967463</v>
       </c>
       <c r="B58" t="n">
-        <v>2219.819402989332</v>
+        <v>1751.774113534828</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>62863.74738314658</v>
+        <v>23660.52827150311</v>
       </c>
       <c r="B59" t="n">
-        <v>2099.910216346256</v>
+        <v>1779.543342120392</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>76103.89547119658</v>
+        <v>47259.15264204965</v>
       </c>
       <c r="B60" t="n">
-        <v>2194.047404875659</v>
+        <v>1790.186094099765</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>85504.19027598696</v>
+        <v>13782.46844705333</v>
       </c>
       <c r="B61" t="n">
-        <v>2155.022869344391</v>
+        <v>1730.097753238435</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>63604.34485087383</v>
+        <v>35446.9294477913</v>
       </c>
       <c r="B62" t="n">
-        <v>2112.965568851503</v>
+        <v>1798.105378631918</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>83710.86244998938</v>
+        <v>48490.16618720053</v>
       </c>
       <c r="B63" t="n">
-        <v>2130.657246807077</v>
+        <v>1842.928551239425</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>80532.65276404766</v>
+        <v>51262.48741904034</v>
       </c>
       <c r="B64" t="n">
-        <v>2098.473703176237</v>
+        <v>1858.291867780529</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73359.21594271762</v>
+        <v>43464.95211077617</v>
       </c>
       <c r="B65" t="n">
-        <v>2079.727706281258</v>
+        <v>1868.82195164422</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>75808.17338630924</v>
+        <v>42419.27086135726</v>
       </c>
       <c r="B66" t="n">
-        <v>2079.727706281258</v>
+        <v>1782.581420056385</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>63843.62573259242</v>
+        <v>60219.72456760885</v>
       </c>
       <c r="B67" t="n">
-        <v>1903.957925497102</v>
+        <v>1748.546077777182</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>90408.00930635697</v>
+        <v>77195.32527859676</v>
       </c>
       <c r="B68" t="n">
-        <v>1876.953864620987</v>
+        <v>1676.532607198133</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>57559.02856044783</v>
+        <v>56010.56485937014</v>
       </c>
       <c r="B69" t="n">
-        <v>1864.137824132266</v>
+        <v>1574.054275991047</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>105504.0022819845</v>
+        <v>75200.03195357831</v>
       </c>
       <c r="B70" t="n">
-        <v>2029.956724710311</v>
+        <v>1730.403633309856</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>137288.9874802831</v>
+        <v>62283.23386789204</v>
       </c>
       <c r="B71" t="n">
-        <v>1962.488400368079</v>
+        <v>1446.9873484765</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>117940.5071505711</v>
+        <v>70443.83015581465</v>
       </c>
       <c r="B72" t="n">
-        <v>1959.241727442806</v>
+        <v>1394.918591326594</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>114419.9005513375</v>
+        <v>73255.13203660354</v>
       </c>
       <c r="B73" t="n">
-        <v>1887.315310286391</v>
+        <v>1641.237488564348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>114045.0177719182</v>
+        <v>67501.61686097633</v>
       </c>
       <c r="B74" t="n">
-        <v>1888.817989735195</v>
+        <v>1606.937706402472</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>128455.3135095066</v>
+        <v>60469.25053001102</v>
       </c>
       <c r="B75" t="n">
-        <v>1509.023657121011</v>
+        <v>1686.963380926836</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>123910.60045883</v>
+        <v>57280.59128766829</v>
       </c>
       <c r="B76" t="n">
-        <v>1836.228379760169</v>
+        <v>1752.522800907359</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>125318.8801378301</v>
+        <v>92000.65876281522</v>
       </c>
       <c r="B77" t="n">
-        <v>1808.718234799877</v>
+        <v>1524.413013883795</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111732.8476456507</v>
+        <v>67099.07089622054</v>
       </c>
       <c r="B78" t="n">
-        <v>1774.859093546404</v>
+        <v>1522.121639812762</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>91691.60164349893</v>
+        <v>67148.05737519568</v>
       </c>
       <c r="B79" t="n">
-        <v>1753.178466257837</v>
+        <v>1541.153972767974</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>82704.61420967474</v>
+        <v>71985.08695568622</v>
       </c>
       <c r="B80" t="n">
-        <v>1684.481970175771</v>
+        <v>1622.280288902387</v>
       </c>
     </row>
   </sheetData>
